--- a/documention/Time Sheet1.xlsx
+++ b/documention/Time Sheet1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -99,10 +99,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;IRR&quot;* #,##0.00_);_(&quot;IRR&quot;* \(#,##0.00\);_(&quot;IRR&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -223,7 +225,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -267,6 +269,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -350,8 +358,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G29" totalsRowShown="0">
-  <autoFilter ref="B7:G29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G30" totalsRowShown="0">
+  <autoFilter ref="B7:G30"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -638,10 +646,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L29"/>
+  <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -655,7 +663,7 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="2.6640625" customWidth="1"/>
     <col min="10" max="10" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -719,7 +727,7 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>117.71666666666665</v>
+        <v>137.16666666666666</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
@@ -727,13 +735,20 @@
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>77.716666666666654</v>
+        <v>97.166666666666657</v>
       </c>
       <c r="J6" s="13">
         <f ca="1">NOW()</f>
-        <v>42909.144333449076</v>
-      </c>
-      <c r="L6" s="13"/>
+        <v>42912.573910879626</v>
+      </c>
+      <c r="K6" s="15">
+        <f>C6*7</f>
+        <v>960.16666666666663</v>
+      </c>
+      <c r="L6" s="16">
+        <f>K6*3700</f>
+        <v>3552616.6666666665</v>
+      </c>
     </row>
     <row r="7" spans="2:12" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
@@ -1219,6 +1234,27 @@
       <c r="G29" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>4.9500000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="4">
+        <v>42912</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.18541666666666701</v>
+      </c>
+      <c r="G30" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>19.45000000000001</v>
       </c>
     </row>
   </sheetData>
